--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1951084.508738952</v>
+        <v>1941886.39215324</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492767</v>
+        <v>7709817.8505524</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10148381.47437521</v>
+        <v>10090166.13428897</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>287.0797283914793</v>
       </c>
       <c r="Y2" t="n">
-        <v>273.0472076947225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11374845278241</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>65.23699284296826</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>40.28277541972513</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>179.8746997895207</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>217.9401101126271</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>11.43714135353491</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>176.2331536132176</v>
+        <v>62.80881943339129</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>64.63383643091589</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>59.67614529770896</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>75.62077850565281</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873221</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292378</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>101.1471539705512</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>30.96411613815253</v>
       </c>
     </row>
     <row r="17">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>67.14052909610486</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>173.1942117550851</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>51.3629536688947</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.26879610203984</v>
+        <v>66.23125412673299</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>143.6049131573511</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>28.20584125154458</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>46.90342393179414</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>26.14194921923986</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>33.8404488238952</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>77.31354443380475</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.7576914549245</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>69.60662835550686</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>119.5976297100114</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>69.51608747328088</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>35.19569619650478</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>90.41948680756548</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>77.31354443380519</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>34.03390320324464</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.546485980902</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>699.731258496553</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>551.8181649141599</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162495</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.597857825387</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>1404.597857825387</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D5" t="n">
-        <v>1046.332159218636</v>
+        <v>1586.028036199279</v>
       </c>
       <c r="E5" t="n">
-        <v>660.5439066203919</v>
+        <v>1200.239783601035</v>
       </c>
       <c r="F5" t="n">
-        <v>653.5984058711884</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G5" t="n">
-        <v>235.6345977693753</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,25 +4565,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4647,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>571.3497027553424</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>571.3497027553424</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>608.1069412257841</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>387.314362082254</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1756.46040851209</v>
+        <v>799.6693661506038</v>
       </c>
       <c r="C8" t="n">
-        <v>1387.497891571678</v>
+        <v>430.7068492101921</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>72.44115060344159</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>72.44115060344159</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>65.49564985423811</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K8" t="n">
-        <v>359.2310423874779</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L8" t="n">
-        <v>912.0443006336772</v>
+        <v>838.937608855259</v>
       </c>
       <c r="M8" t="n">
-        <v>1543.762111616989</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>2171.069779676835</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2362.920767037053</v>
+        <v>2633.705839065302</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.229063782204</v>
+        <v>2633.705839065302</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.229063782204</v>
+        <v>2302.642951721731</v>
       </c>
       <c r="W8" t="n">
-        <v>1756.46040851209</v>
+        <v>1949.874296451617</v>
       </c>
       <c r="X8" t="n">
-        <v>1756.46040851209</v>
+        <v>1576.408538190537</v>
       </c>
       <c r="Y8" t="n">
-        <v>1756.46040851209</v>
+        <v>1186.269206214726</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>316.0048420001852</v>
       </c>
       <c r="L9" t="n">
-        <v>592.9687148475971</v>
+        <v>623.4242400445571</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1001.525045698358</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1404.041699519502</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1750.046004555816</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2323.690038336088</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>387.6437000055444</v>
+        <v>436.0789617962361</v>
       </c>
       <c r="C10" t="n">
-        <v>218.7075170776374</v>
+        <v>267.1427788683292</v>
       </c>
       <c r="D10" t="n">
-        <v>218.7075170776374</v>
+        <v>267.1427788683292</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>119.2296852859361</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S10" t="n">
-        <v>863.1207673549613</v>
+        <v>1492.060663628368</v>
       </c>
       <c r="T10" t="n">
-        <v>863.1207673549613</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="U10" t="n">
-        <v>863.1207673549613</v>
+        <v>980.1806200390836</v>
       </c>
       <c r="V10" t="n">
-        <v>608.4362791490745</v>
+        <v>725.4961318331967</v>
       </c>
       <c r="W10" t="n">
-        <v>608.4362791490745</v>
+        <v>436.0789617962361</v>
       </c>
       <c r="X10" t="n">
-        <v>608.4362791490745</v>
+        <v>436.0789617962361</v>
       </c>
       <c r="Y10" t="n">
-        <v>387.6437000055444</v>
+        <v>436.0789617962361</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5148,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>361.8228945579559</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>543.4713593881957</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089235</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>1923.729615463053</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>2903.481887689699</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107236</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.811212990069</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C16" t="n">
-        <v>612.8750300621621</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D16" t="n">
-        <v>462.7583906498263</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E16" t="n">
         <v>360.5895482553301</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.252256963839</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4596778203087</v>
+        <v>360.5895482553301</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001584</v>
@@ -5519,22 +5519,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1172.647446689874</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.655184290893</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>872.655184290893</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>722.5385448785572</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>574.6254512961641</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5683,40 +5683,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518524</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952184</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862227</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689053</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258579</v>
       </c>
       <c r="U19" t="n">
-        <v>1644.746393431758</v>
+        <v>1163.957642384222</v>
       </c>
       <c r="V19" t="n">
-        <v>1390.061905225871</v>
+        <v>909.2731541783354</v>
       </c>
       <c r="W19" t="n">
-        <v>1100.64473518891</v>
+        <v>619.8559841413748</v>
       </c>
       <c r="X19" t="n">
-        <v>872.655184290893</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y19" t="n">
-        <v>872.655184290893</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5768,34 +5768,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,13 +5820,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.6246893481011</v>
+        <v>3082.612567657322</v>
       </c>
       <c r="C22" t="n">
-        <v>558.6885064201942</v>
+        <v>3082.612567657322</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>3082.612567657322</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>3064.159238261322</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>3820.81186773583</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="X22" t="n">
-        <v>909.2731541783409</v>
+        <v>3303.405146800852</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.2731541783409</v>
+        <v>3082.612567657322</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5993,40 +5993,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4282.846491325865</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3082.612567657321</v>
+        <v>3282.19928045181</v>
       </c>
       <c r="C25" t="n">
-        <v>3082.612567657321</v>
+        <v>3282.19928045181</v>
       </c>
       <c r="D25" t="n">
-        <v>3082.612567657321</v>
+        <v>3132.082641039475</v>
       </c>
       <c r="E25" t="n">
-        <v>3082.612567657321</v>
+        <v>2984.169547457082</v>
       </c>
       <c r="F25" t="n">
-        <v>2935.722620159411</v>
+        <v>2984.169547457082</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246546</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816072</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941716</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V25" t="n">
-        <v>3820.811867735829</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W25" t="n">
-        <v>3531.394697698868</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="X25" t="n">
-        <v>3303.405146800851</v>
+        <v>3502.99185959534</v>
       </c>
       <c r="Y25" t="n">
-        <v>3082.612567657321</v>
+        <v>3282.19928045181</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,22 +6227,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>946.665243953484</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C28" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1927.85271736577</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="U28" t="n">
-        <v>1866.513008862232</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V28" t="n">
-        <v>1866.513008862232</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W28" t="n">
-        <v>1577.095838825271</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X28" t="n">
-        <v>1349.106287927254</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y28" t="n">
-        <v>1128.313708783724</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3328.51499135249</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C31" t="n">
-        <v>3328.51499135249</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>3328.51499135249</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>3328.51499135249</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1908.966270214003</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1717.280386040829</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1495.513770610355</v>
       </c>
       <c r="U31" t="n">
-        <v>4274.768765573601</v>
+        <v>1206.410903735999</v>
       </c>
       <c r="V31" t="n">
-        <v>4248.362756261237</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="W31" t="n">
-        <v>3958.945586224277</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="X31" t="n">
-        <v>3730.95603532626</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="Y31" t="n">
-        <v>3510.16345618273</v>
+        <v>951.7264155301116</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.613856788637</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607301</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1878.248976777628</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1878.248976777628</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.146109903272</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V34" t="n">
-        <v>1334.461621697385</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W34" t="n">
-        <v>1045.044451660424</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X34" t="n">
-        <v>817.0549007624069</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y34" t="n">
-        <v>596.2623216188767</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="35">
@@ -6914,43 +6914,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364127</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420602</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107236</v>
@@ -6959,22 +6959,22 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7011,16 +7011,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783413</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413808</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>391.8664332433634</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998333</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807097</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7196,28 +7196,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,22 +7281,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>876.4469737784534</v>
+        <v>946.665243953484</v>
       </c>
       <c r="C40" t="n">
-        <v>707.5107908505465</v>
+        <v>777.7290610255772</v>
       </c>
       <c r="D40" t="n">
-        <v>557.3941514382108</v>
+        <v>627.6124216132414</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7366,16 +7366,16 @@
         <v>1866.513008862232</v>
       </c>
       <c r="V40" t="n">
-        <v>1796.294738687201</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W40" t="n">
-        <v>1506.87756865024</v>
+        <v>1577.095838825271</v>
       </c>
       <c r="X40" t="n">
-        <v>1278.888017752223</v>
+        <v>1349.106287927254</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.095438608693</v>
+        <v>1128.313708783724</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,46 +7394,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846822</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518747</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577529</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7445,16 +7445,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>300.0484256555991</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C43" t="n">
-        <v>131.1122427276922</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>333.7837969034416</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>186.8938494055313</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927063</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892255</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931534</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.89096650106</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208167</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838562</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858388</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6968904858388</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846822</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577529</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7682,16 +7682,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.6138567886371</v>
+        <v>805.0466682503443</v>
       </c>
       <c r="C46" t="n">
-        <v>245.6776738607302</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7831,25 +7831,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1878.248976777628</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.146109903272</v>
+        <v>1508.513286497779</v>
       </c>
       <c r="V46" t="n">
-        <v>1334.461621697385</v>
+        <v>1253.828798291892</v>
       </c>
       <c r="W46" t="n">
-        <v>1045.044451660424</v>
+        <v>1253.828798291892</v>
       </c>
       <c r="X46" t="n">
-        <v>817.0549007624069</v>
+        <v>1025.839247393874</v>
       </c>
       <c r="Y46" t="n">
-        <v>596.2623216188767</v>
+        <v>805.0466682503443</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>283.1760056204237</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>34.4292999785705</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8471,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>337.5639548971532</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>115.6617449752297</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>295.4822118493975</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>104.3976710547468</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>198.7154374299955</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>288.0478149561023</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277287</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400235</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225791987</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225791987</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>142.963874846442</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>45.28680867601793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>187.6205372139423</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>78.28051892682639</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>52.51544363395209</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>97.25251934931765</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>147.7570121569884</v>
+        <v>99.79455413229523</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>23.64190794127671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>161.5631840798973</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>42.02872873825319</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>225.9956941045882</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>145.9915313580421</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25123,13 +25123,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>112.4554808976371</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270128</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>76.82733429106231</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>26.8363329365578</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>182.6215558505471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.4197768217076</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>54.33552810675531</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>252.1779350023682</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>932957.1346399121</v>
+        <v>910566.2288273899</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>910566.2288273899</v>
+        <v>870887.0590351415</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861640.6778858805</v>
+        <v>861640.6778858803</v>
       </c>
     </row>
     <row r="8">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417761</v>
       </c>
       <c r="H2" t="n">
         <v>555914.5016417766</v>
@@ -26335,25 +26335,25 @@
         <v>555914.5016417768</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="L2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="M2" t="n">
+        <v>555914.5016417768</v>
+      </c>
+      <c r="N2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="M2" t="n">
-        <v>555914.5016417766</v>
-      </c>
-      <c r="N2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555914.5016417766</v>
-      </c>
       <c r="P2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513059</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431702</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289567</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289567</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289566</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.8393528957</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219665</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219665</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289573</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26485,31 +26485,31 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305924.272613443</v>
+        <v>-308020.1338359884</v>
       </c>
       <c r="C6" t="n">
-        <v>284043.6066011016</v>
+        <v>114453.8300362373</v>
       </c>
       <c r="D6" t="n">
-        <v>127577.5642448573</v>
+        <v>42287.41095318191</v>
       </c>
       <c r="E6" t="n">
-        <v>-122266.8863306381</v>
+        <v>172637.1857919972</v>
       </c>
       <c r="F6" t="n">
-        <v>431790.441285866</v>
+        <v>430969.1440351674</v>
       </c>
       <c r="G6" t="n">
-        <v>431790.4412858661</v>
+        <v>430969.1440351668</v>
       </c>
       <c r="H6" t="n">
-        <v>431790.4412858663</v>
+        <v>430969.1440351673</v>
       </c>
       <c r="I6" t="n">
-        <v>431790.4412858664</v>
+        <v>430969.1440351674</v>
       </c>
       <c r="J6" t="n">
-        <v>255367.2220932731</v>
+        <v>254545.9248425742</v>
       </c>
       <c r="K6" t="n">
-        <v>431790.4412858661</v>
+        <v>430969.1440351672</v>
       </c>
       <c r="L6" t="n">
-        <v>431790.4412858661</v>
+        <v>430969.1440351669</v>
       </c>
       <c r="M6" t="n">
-        <v>302148.1264469216</v>
+        <v>301326.8291962227</v>
       </c>
       <c r="N6" t="n">
-        <v>431790.4412858661</v>
+        <v>430969.1440351673</v>
       </c>
       <c r="O6" t="n">
-        <v>431790.4412858663</v>
+        <v>430969.1440351671</v>
       </c>
       <c r="P6" t="n">
-        <v>431790.4412858663</v>
+        <v>430969.1440351669</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26768,16 +26768,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599695</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952638</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>82.65137228698978</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.190730961331</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>120.5017245654299</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>186.9006504808597</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>314.4002662009578</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>144.0480729748364</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>56.93405031343801</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>7.769545276410042</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>36.41870950174845</v>
+        <v>143.3653829333355</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>80.78721159201535</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>145.6897366024097</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.094235813070554e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.629215446684005e-12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32804,10 +32804,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33278,10 +33278,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138792</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>483.8393810271557</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8264258114921</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L9" t="n">
-        <v>476.1797104685612</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>579.4384179598713</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>239.6936245066007</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35492,7 +35492,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35647,13 +35647,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35662,7 +35662,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>694.2441980687694</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>559.987785447079</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35896,7 +35896,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36051,7 +36051,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675347</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>440.5941055929839</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36452,10 +36452,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>751.017272842907</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>743.6379293484345</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.704205320061</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>657.383164781064</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134005</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427827</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502522</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721702018</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502522</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051229.620847473</v>
+        <v>2046923.904471402</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>25.08018229766631</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.76048959327957</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>197.9240804051652</v>
+        <v>298.6049958326446</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>20.30061708736343</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>76.31139823684707</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>321.6648057272831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>106.8794090615483</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>143.7703193541471</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>36.21070476472222</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>78.34975387299269</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>126.4267013134142</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>71.60395572454081</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>5.640152769375217</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.1230996349843</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>63.84155641259233</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>160.3783204776935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>94.3037379180827</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.88641949135544</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2671.815573545832</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2495.638085860002</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2495.638085860002</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2495.638085860002</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2164.575198516432</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2164.575198516432</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.109440255352</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>229.6312428658945</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>229.6312428658945</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>229.6312428658945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>71.88287029842462</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>71.88287029842462</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563.476704221264</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="C5" t="n">
-        <v>1563.476704221264</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="D5" t="n">
-        <v>1563.476704221264</v>
+        <v>1184.513902623547</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4606,13 +4606,13 @@
         <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.476704221264</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1351.24026920853</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.24026920853</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>992.9745706017798</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605201</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,16 +4810,16 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2024.91527597564</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2195.084301292599</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>2372.235145839149</v>
       </c>
       <c r="X8" t="n">
-        <v>1741.379601184342</v>
+        <v>1998.769387578069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1351.24026920853</v>
+        <v>1608.630055602257</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8081818444795</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>620.8081818444795</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>620.8081818444795</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>472.8950882620863</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>620.8081818444795</v>
+        <v>923.3499417167701</v>
       </c>
       <c r="Y10" t="n">
-        <v>620.8081818444795</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5503,16 +5503,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5524,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4142.189983800566</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3887.505495594679</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3598.088325557718</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.400878868273</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2418.621364762389</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2913.946970978148</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.3254586047</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7025,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.2213777565</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7156,31 +7156,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7256,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.2858920990371</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>2877.8627132863</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>2727.746073873964</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>2579.832980291571</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2432.943032793661</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2432.943032793661</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,25 +7648,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
@@ -7739,13 +7739,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>147.63081181939</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>391.5614865245117</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-8.013003602730812e-14</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>207.8347205162515</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>99.28295407562294</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.4223302771038</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>211.765297557913</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.708880546953</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>84.77391660562003</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>65.33133491134365</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>45.99097492814118</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>250.2980548978887</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830043</v>
@@ -26337,25 +26337,25 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
@@ -26438,7 +26438,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26447,16 +26447,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682718</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26524,46 +26524,46 @@
         <v>-308020.1338359884</v>
       </c>
       <c r="C6" t="n">
-        <v>281947.745378556</v>
+        <v>281947.7453785562</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847609</v>
+        <v>126143.9392847606</v>
       </c>
       <c r="E6" t="n">
-        <v>-312850.1379883919</v>
+        <v>-313197.5172427489</v>
       </c>
       <c r="F6" t="n">
-        <v>458202.5533924144</v>
+        <v>457855.1741380575</v>
       </c>
       <c r="G6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="H6" t="n">
-        <v>458202.5533924144</v>
+        <v>457855.1741380575</v>
       </c>
       <c r="I6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="J6" t="n">
-        <v>281779.3341998213</v>
+        <v>281431.9549454646</v>
       </c>
       <c r="K6" t="n">
-        <v>458202.5533924148</v>
+        <v>457855.1741380575</v>
       </c>
       <c r="L6" t="n">
-        <v>458202.5533924144</v>
+        <v>457855.1741380576</v>
       </c>
       <c r="M6" t="n">
-        <v>333994.0426843562</v>
+        <v>333646.6634299991</v>
       </c>
       <c r="N6" t="n">
-        <v>458202.5533924149</v>
+        <v>457855.1741380575</v>
       </c>
       <c r="O6" t="n">
-        <v>458202.5533924146</v>
+        <v>457855.1741380577</v>
       </c>
       <c r="P6" t="n">
-        <v>458202.5533924145</v>
+        <v>457855.1741380577</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>338.7761146022503</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29.3982202771454</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>27.43946959525744</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>184.0062896670966</v>
+        <v>83.32537423961719</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>265.9812571546143</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>305.6189718354147</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>27.57616299012994</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>38.54163896138297</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172748</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33505,19 +33505,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>202.2352659288684</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>539.5330155967679</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>359.7096985496635</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>259.4836656067906</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>592.2248619312437</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>68.26085851453816</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>405.5586081824376</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3679864663302</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2046923.904471402</v>
+        <v>2048684.434774188</v>
       </c>
     </row>
     <row r="7">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.95772706123027</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>76.86692178786525</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>298.6049958326446</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>85.29711686211736</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>321.6648057272831</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>225.5650375952951</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>129.2224443473097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>143.7703193541471</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>156.3923706291105</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814947</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>206.1466683956862</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>148.8796904206629</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="D37" t="n">
-        <v>63.84155641259233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>117.8112368377021</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>103.1686991936197</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2564.477046207438</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2345.8423791795</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2092.080593817592</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2092.080593817592</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2092.080593817592</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1718.614835556512</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.779601230298</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>1542.779601230298</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.513902623547</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1542.779601230298</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598711</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.030215538135</v>
+        <v>625.0058556773363</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>625.0058556773363</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>266.7401570705858</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>266.7401570705858</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>259.7946563213823</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>109.8675491160735</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.235145839149</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1998.769387578069</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1608.630055602257</v>
+        <v>625.0058556773363</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>142.9741724191618</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>826.0341909612292</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>923.3499417167701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,10 +5041,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>398.6787020904383</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,13 +5843,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
         <v>2129.438138565707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>776.1751066403293</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.845153664065208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>45.99097492814181</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>47.43691740069065</v>
       </c>
       <c r="D37" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>47.7129014545667</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.44677382459263</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.619783005</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
@@ -26444,7 +26444,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359884</v>
+        <v>-308020.1338359885</v>
       </c>
       <c r="C6" t="n">
-        <v>281947.7453785562</v>
+        <v>281947.7453785558</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847606</v>
+        <v>126143.9392847608</v>
       </c>
       <c r="E6" t="n">
-        <v>-313197.5172427489</v>
+        <v>-312884.8759138276</v>
       </c>
       <c r="F6" t="n">
-        <v>457855.1741380575</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="G6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669788</v>
       </c>
       <c r="H6" t="n">
-        <v>457855.1741380575</v>
+        <v>458167.8154669793</v>
       </c>
       <c r="I6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="J6" t="n">
-        <v>281431.9549454646</v>
+        <v>281744.5962743863</v>
       </c>
       <c r="K6" t="n">
-        <v>457855.1741380575</v>
+        <v>458167.8154669786</v>
       </c>
       <c r="L6" t="n">
-        <v>457855.1741380576</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="M6" t="n">
-        <v>333646.6634299991</v>
+        <v>333959.3047589205</v>
       </c>
       <c r="N6" t="n">
-        <v>457855.1741380575</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="O6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="P6" t="n">
-        <v>457855.1741380577</v>
+        <v>458167.8154669791</v>
       </c>
     </row>
   </sheetData>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.7761146022503</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>97.54879102110625</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>83.32537423961719</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>327.6197870838194</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>27.57616299012994</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>60.69561706280186</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>96.48721104172748</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>438.5310889592619</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>56.4894619148576</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>89.93049555434075</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849029</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
